--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_10_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_10_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31891.30897132188</v>
+        <v>6346370.485293051</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31891.30897132188</v>
+        <v>6346370.485293051</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>47382.69364483212</v>
+        <v>4020814.113317999</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47382.69364483212</v>
+        <v>4020814.113317999</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1610105565.86074</v>
+        <v>63205266.47643302</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13078.60394480076</v>
+        <v>1417145.711159656</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25552.80695834979</v>
+        <v>2739491.60350888</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>38027.00997189881</v>
+        <v>4061837.495858105</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>53258.4471979245</v>
+        <v>5354140.099328972</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>68241.61775728347</v>
+        <v>6597037.636133172</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>83224.78831664244</v>
+        <v>7839935.172937367</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>98749.47321943573</v>
+        <v>9103556.047115298</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>114170.0207484917</v>
+        <v>10346453.58391949</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>129877.7995699957</v>
+        <v>11519794.19476782</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>145088.8052808698</v>
+        <v>12762691.73157202</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>160299.810991744</v>
+        <v>14005589.26837621</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>172908.8695643943</v>
+        <v>15278530.09405877</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>185766.1948037112</v>
+        <v>16600875.986408</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>201767.932844339</v>
+        <v>17539607.70405412</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>218478.8708394716</v>
+        <v>18231317.98554615</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>217</v>
@@ -27052,13 +27052,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>181</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>421</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>627</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>263</v>
